--- a/EmissionValues.xlsx
+++ b/EmissionValues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="24800" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="23040" windowHeight="9080"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$47</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -22,74 +25,226 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>Almond milk</t>
+  </si>
+  <si>
+    <t>Almonds</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Cheese slices</t>
+  </si>
+  <si>
+    <t>Cheese spread</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Chickpeas</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Chocolate milk</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Dried Beef</t>
+  </si>
+  <si>
+    <t>Dry Pasta</t>
+  </si>
+  <si>
+    <t>Fresh ravioli with meat</t>
+  </si>
+  <si>
+    <t>Fresh ravioli with spinach and ricotta</t>
+  </si>
+  <si>
+    <t>Gruyére</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>Lentils</t>
+  </si>
+  <si>
+    <t>Low fat organic milk</t>
+  </si>
+  <si>
+    <t>Non-free range eggs</t>
+  </si>
+  <si>
+    <t>Pancetta</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>Pork sausages</t>
+  </si>
+  <si>
+    <t>Quorn</t>
+  </si>
+  <si>
+    <t>Red kidney beans</t>
+  </si>
+  <si>
+    <t>Rice milk</t>
+  </si>
+  <si>
+    <t>Risotto rice</t>
+  </si>
+  <si>
+    <t>Sliced beef</t>
+  </si>
+  <si>
+    <t>Sliced chicken</t>
+  </si>
+  <si>
+    <t>Smoked cheese</t>
+  </si>
+  <si>
+    <t>Spaghetti Carbonara pre-made meal</t>
+  </si>
+  <si>
+    <t>Tofu</t>
+  </si>
+  <si>
+    <t>UHT milk</t>
+  </si>
+  <si>
+    <t>Vegetarian salami</t>
+  </si>
+  <si>
+    <t>Wholegrain dry pasta</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Whole Milk</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Peas</t>
+  </si>
+  <si>
+    <t>Barley</t>
+  </si>
+  <si>
+    <t>Kg of CO2 equivalent per Kg of Product</t>
+  </si>
+  <si>
+    <t>Energy Consumption</t>
+  </si>
+  <si>
+    <t>Water Usage</t>
+  </si>
+  <si>
+    <t>M^3 per Kg of Product</t>
+  </si>
+  <si>
+    <t>MJ per Kg of Product</t>
+  </si>
+  <si>
+    <t>Global Warming Potential (GWP)</t>
+  </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Beef</t>
-  </si>
-  <si>
-    <t>Pasta</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Fruits</t>
-  </si>
-  <si>
-    <t>Salmon</t>
-  </si>
-  <si>
-    <t>Salad</t>
-  </si>
-  <si>
-    <t>Lemon</t>
-  </si>
-  <si>
-    <t>Snickers</t>
-  </si>
-  <si>
-    <t>Starfish</t>
-  </si>
-  <si>
-    <t>Kangoroo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,28 +252,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,9 +353,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -193,14 +383,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -228,6 +435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,136 +604,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="7">
+        <v>1.0898783206332101</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.0898783206332101</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.0898783206332101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" s="7">
+        <v>2.1797566412664202</v>
+      </c>
+      <c r="C4" s="7">
+        <v>26.309886088216</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.9013045715911601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B5" s="7">
+        <v>27.759977591671198</v>
+      </c>
+      <c r="C5" s="7">
+        <v>164.224859803377</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.469425987022143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B6" s="7">
+        <v>8.2898653954866894</v>
+      </c>
+      <c r="C6" s="7">
+        <v>35.495578261973101</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.14570166801345499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6.2027222398178896</v>
+      </c>
+      <c r="C7" s="7">
+        <v>26.705441762149601</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.108737614894822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6.8188280359115296</v>
+      </c>
+      <c r="C8" s="7">
+        <v>64.135317267657001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.33902140273791398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>14.6743296898354</v>
+      </c>
+      <c r="C9" s="7">
+        <v>90.248969315788102</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.37513623312745797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4.6525659491155826</v>
+      </c>
+      <c r="C10" s="7">
+        <v>26.923822947676342</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.11053844368761952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.19045655136876699</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.8766423371080601</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5.725737294377E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="B12" s="7">
+        <v>27.759977591671198</v>
+      </c>
+      <c r="C12" s="7">
+        <v>164.224859803377</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.469425987022143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1.4931742795549099</v>
+      </c>
+      <c r="C13" s="7">
+        <v>17.225670324435601</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1.18891713900774E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10.247750506055313</v>
+      </c>
+      <c r="C14" s="7">
+        <v>66.218777610734321</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.16438500312310583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3.0627172972826053</v>
+      </c>
+      <c r="C15" s="7">
+        <v>20.383555577593235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4.4167568693069773E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8.2898653954866894</v>
+      </c>
+      <c r="C16" s="7">
+        <v>35.495578261973101</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.14570166801345499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>10.761064044114701</v>
+      </c>
+      <c r="C17" s="7">
+        <v>91.401807604847093</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.52107065489710402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.78396357243263803</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.67374478926682</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.13569536742406299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1.10754569554789</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1.3893857124698801</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1.4149503710495399E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3.94395544753558</v>
+      </c>
+      <c r="C20" s="7">
+        <v>36.099327234101899</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.18456657454426301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>10.761064044114701</v>
+      </c>
+      <c r="C21" s="7">
+        <v>91.401807604847093</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.52107065489710402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B22" s="7">
+        <v>10.761064044114701</v>
+      </c>
+      <c r="C22" s="7">
+        <v>91.401807604847093</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.52107065489710402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>10.761064044114701</v>
+      </c>
+      <c r="C23" s="7">
+        <v>91.401807604847093</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.52107065489710402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.19045655136876699</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.8766423371080601</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5.725737294377E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.78396357243263803</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.67374478926682</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.13569536742406299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.25712987138015753</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.25712987138015753</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.25712987138015753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1.0285194855206301</v>
+      </c>
+      <c r="C27" s="7">
+        <v>5.4292410453906701</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.35153526300458998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7">
+        <v>27.759977591671198</v>
+      </c>
+      <c r="C28" s="7">
+        <v>164.224859803377</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.469425987022143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="C29" s="4">
+        <v>64</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6.2027222398178896</v>
+      </c>
+      <c r="C30" s="7">
+        <v>26.705441762149601</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.108737614894822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3.4404711732447097</v>
+      </c>
+      <c r="C31" s="7">
+        <v>28.522439195720203</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.10953513289494721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.2321245133174301</v>
+      </c>
+      <c r="C32" s="7">
+        <v>14.366381167705001</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4.2499828861568096E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1.3119780355423101</v>
+      </c>
+      <c r="C33" s="7">
+        <v>5.8154408249724199</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2.2339180541006701E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.19045655136876699</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1.8766423371080601</v>
+      </c>
+      <c r="D34" s="7">
+        <v>5.725737294377E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.4931742795549099</v>
+      </c>
+      <c r="C35" s="7">
+        <v>17.225670324435601</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1.18891713900774E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>25.44</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>11.52</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
+      <c r="B47" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EmissionValues.xlsx
+++ b/EmissionValues.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$46</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Almond milk</t>
   </si>
@@ -175,19 +175,10 @@
     <t>Barley</t>
   </si>
   <si>
-    <t>Kg of CO2 equivalent per Kg of Product</t>
-  </si>
-  <si>
     <t>Energy Consumption</t>
   </si>
   <si>
     <t>Water Usage</t>
-  </si>
-  <si>
-    <t>M^3 per Kg of Product</t>
-  </si>
-  <si>
-    <t>MJ per Kg of Product</t>
   </si>
   <si>
     <t>Global Warming Potential (GWP)</t>
@@ -273,7 +264,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -283,9 +274,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -604,9 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -617,612 +607,600 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.0898783206332101</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0898783206332101</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.0898783206332101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1.0898783206332101</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1.0898783206332101</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1.0898783206332101</v>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2.1797566412664202</v>
+      </c>
+      <c r="C3" s="6">
+        <v>26.309886088216</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.9013045715911601</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.1797566412664202</v>
-      </c>
-      <c r="C4" s="7">
-        <v>26.309886088216</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.9013045715911601</v>
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>27.759977591671198</v>
+      </c>
+      <c r="C4" s="6">
+        <v>164.224859803377</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.469425987022143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>27.759977591671198</v>
-      </c>
-      <c r="C5" s="7">
-        <v>164.224859803377</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.469425987022143</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8.2898653954866894</v>
+      </c>
+      <c r="C5" s="6">
+        <v>35.495578261973101</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.14570166801345499</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>8.2898653954866894</v>
-      </c>
-      <c r="C6" s="7">
-        <v>35.495578261973101</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.14570166801345499</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6.2027222398178896</v>
+      </c>
+      <c r="C6" s="6">
+        <v>26.705441762149601</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.108737614894822</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7">
-        <v>6.2027222398178896</v>
-      </c>
-      <c r="C7" s="7">
-        <v>26.705441762149601</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.108737614894822</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6.8188280359115296</v>
+      </c>
+      <c r="C7" s="6">
+        <v>64.135317267657001</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.33902140273791398</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7">
-        <v>6.8188280359115296</v>
-      </c>
-      <c r="C8" s="7">
-        <v>64.135317267657001</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.33902140273791398</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>14.6743296898354</v>
+      </c>
+      <c r="C8" s="6">
+        <v>90.248969315788102</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.37513623312745797</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>14.6743296898354</v>
-      </c>
-      <c r="C9" s="7">
-        <v>90.248969315788102</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.37513623312745797</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4.6525659491155826</v>
+      </c>
+      <c r="C9" s="6">
+        <v>26.923822947676342</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.11053844368761952</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>4.6525659491155826</v>
-      </c>
-      <c r="C10" s="7">
-        <v>26.923822947676342</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.11053844368761952</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.19045655136876699</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.8766423371080601</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5.725737294377E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.19045655136876699</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1.8766423371080601</v>
-      </c>
-      <c r="D11" s="7">
-        <v>5.725737294377E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>27.759977591671198</v>
+      </c>
+      <c r="C11" s="6">
+        <v>164.224859803377</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.469425987022143</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>27.759977591671198</v>
-      </c>
-      <c r="C12" s="7">
-        <v>164.224859803377</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.469425987022143</v>
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1.4931742795549099</v>
+      </c>
+      <c r="C12" s="6">
+        <v>17.225670324435601</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.18891713900774E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1.4931742795549099</v>
-      </c>
-      <c r="C13" s="7">
-        <v>17.225670324435601</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1.18891713900774E-2</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10.247750506055313</v>
+      </c>
+      <c r="C13" s="6">
+        <v>66.218777610734321</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.16438500312310583</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
-        <v>10.247750506055313</v>
-      </c>
-      <c r="C14" s="7">
-        <v>66.218777610734321</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.16438500312310583</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3.0627172972826053</v>
+      </c>
+      <c r="C14" s="6">
+        <v>20.383555577593235</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4.4167568693069773E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3.0627172972826053</v>
-      </c>
-      <c r="C15" s="7">
-        <v>20.383555577593235</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4.4167568693069773E-2</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>8.2898653954866894</v>
+      </c>
+      <c r="C15" s="6">
+        <v>35.495578261973101</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.14570166801345499</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>8.2898653954866894</v>
-      </c>
-      <c r="C16" s="7">
-        <v>35.495578261973101</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.14570166801345499</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10.761064044114701</v>
+      </c>
+      <c r="C16" s="6">
+        <v>91.401807604847093</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.52107065489710402</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7">
-        <v>10.761064044114701</v>
-      </c>
-      <c r="C17" s="7">
-        <v>91.401807604847093</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.52107065489710402</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.78396357243263803</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5.67374478926682</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.13569536742406299</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.78396357243263803</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5.67374478926682</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.13569536742406299</v>
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1.10754569554789</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.3893857124698801</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.4149503710495399E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1.10754569554789</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1.3893857124698801</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1.4149503710495399E-3</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3.94395544753558</v>
+      </c>
+      <c r="C19" s="6">
+        <v>36.099327234101899</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.18456657454426301</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7">
-        <v>3.94395544753558</v>
-      </c>
-      <c r="C20" s="7">
-        <v>36.099327234101899</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.18456657454426301</v>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>10.761064044114701</v>
+      </c>
+      <c r="C20" s="6">
+        <v>91.401807604847093</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.52107065489710402</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
         <v>10.761064044114701</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>91.401807604847093</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>0.52107065489710402</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
         <v>10.761064044114701</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>91.401807604847093</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>0.52107065489710402</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7">
-        <v>10.761064044114701</v>
-      </c>
-      <c r="C23" s="7">
-        <v>91.401807604847093</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.52107065489710402</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.19045655136876699</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.8766423371080601</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5.725737294377E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.19045655136876699</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1.8766423371080601</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5.725737294377E-2</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.78396357243263803</v>
+      </c>
+      <c r="C24" s="6">
+        <v>5.67374478926682</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.13569536742406299</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.78396357243263803</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5.67374478926682</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.13569536742406299</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.25712987138015753</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.25712987138015753</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.25712987138015753</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0.25712987138015753</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.25712987138015753</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.25712987138015753</v>
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1.0285194855206301</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5.4292410453906701</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.35153526300458998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1.0285194855206301</v>
-      </c>
-      <c r="C27" s="7">
-        <v>5.4292410453906701</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0.35153526300458998</v>
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>27.759977591671198</v>
+      </c>
+      <c r="C27" s="6">
+        <v>164.224859803377</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.469425987022143</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7">
-        <v>27.759977591671198</v>
-      </c>
-      <c r="C28" s="7">
-        <v>164.224859803377</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.469425987022143</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="C28" s="4">
+        <v>64</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.34</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="C29" s="4">
-        <v>64</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.34</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>6.2027222398178896</v>
+      </c>
+      <c r="C29" s="6">
+        <v>26.705441762149601</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.108737614894822</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7">
-        <v>6.2027222398178896</v>
-      </c>
-      <c r="C30" s="7">
-        <v>26.705441762149601</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.108737614894822</v>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3.4404711732447097</v>
+      </c>
+      <c r="C30" s="6">
+        <v>28.522439195720203</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.10953513289494721</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7">
-        <v>3.4404711732447097</v>
-      </c>
-      <c r="C31" s="7">
-        <v>28.522439195720203</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.10953513289494721</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3.2321245133174301</v>
+      </c>
+      <c r="C31" s="6">
+        <v>14.366381167705001</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4.2499828861568096E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7">
-        <v>3.2321245133174301</v>
-      </c>
-      <c r="C32" s="7">
-        <v>14.366381167705001</v>
-      </c>
-      <c r="D32" s="7">
-        <v>4.2499828861568096E-3</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1.3119780355423101</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5.8154408249724199</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2.2339180541006701E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1.3119780355423101</v>
-      </c>
-      <c r="C33" s="7">
-        <v>5.8154408249724199</v>
-      </c>
-      <c r="D33" s="7">
-        <v>2.2339180541006701E-2</v>
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.19045655136876699</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.8766423371080601</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5.725737294377E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.19045655136876699</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1.8766423371080601</v>
-      </c>
-      <c r="D34" s="7">
-        <v>5.725737294377E-2</v>
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1.4931742795549099</v>
+      </c>
+      <c r="C34" s="6">
+        <v>17.225670324435601</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1.18891713900774E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1.4931742795549099</v>
-      </c>
-      <c r="C35" s="7">
-        <v>17.225670324435601</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1.18891713900774E-2</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>25.44</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>25.44</v>
+        <v>11.52</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>11.52</v>
+        <v>5.9</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4">
-        <v>5.9</v>
+        <v>3.61</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>3.61</v>
+        <v>3.49</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4">
-        <v>1.4</v>
+        <v>0.51</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B46" s="4">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
